--- a/1_semester/Support_and_testing_of_software_modules/Lab2/Модуль 1/import/Пункты выдачи_import.xlsx
+++ b/1_semester/Support_and_testing_of_software_modules/Lab2/Модуль 1/import/Пункты выдачи_import.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-204" yWindow="-204" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-210" yWindow="-210" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
-    <sheet name="Address_Vidachi" sheetId="2" r:id="rId1"/>
+    <sheet name="Address_Vidachi" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -491,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,13 +501,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="40.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
